--- a/data/georgia_census/kakheti/yvareli/average_wages.xlsx
+++ b/data/georgia_census/kakheti/yvareli/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF133B2E-20F9-42E6-85FD-559E08881B20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59E5F2D-A2B2-49E9-ACFC-BAE5DDF5B2FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25ADED43-9956-4B89-9CB9-C3818FC9DF58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A765F3C-7FF2-42DE-BB5A-3FEB22B30996}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD379459-91EC-4FEA-BFBD-069048D005A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4F36AC-B303-4B7D-9830-E70A16FE3850}"/>
 </file>